--- a/data/trans_dic/P25A_N_R2-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P25A_N_R2-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tiene más de dos enfermedades crónicas discapacitantes</t>
+          <t>Población que tiene más de dos enfermedades crónicas discapacitantes (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +601,72 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,17 +705,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,67%</t>
+          <t>8,66%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>8,1%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -676,42 +725,72 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,23%</t>
+          <t>14,72%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,69%</t>
+          <t>9,85%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>13,86%</t>
+          <t>14,45%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>14,83%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>14,18%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
           <t>19,65%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>11,58%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>11,35%</t>
-        </is>
-      </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>11,2%</t>
+          <t>26,32%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
+          <t>21,62%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>11,69%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>11,64%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>11,53%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
           <t>15,8%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>20,62%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>16,02%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,47; 12,19</t>
+          <t>6,54; 11,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,84; 10,62</t>
+          <t>6,08; 11,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,19; 10,51</t>
+          <t>6,53; 11,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,73; 14,48</t>
+          <t>9,69; 14,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,63; 17,16</t>
+          <t>12,12; 17,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,29; 17,34</t>
+          <t>7,39; 13,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,58; 16,46</t>
+          <t>12,09; 17,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,03; 22,44</t>
+          <t>12,37; 17,55</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,76; 13,54</t>
+          <t>11,88; 16,68</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9,74; 13,17</t>
+          <t>16,86; 22,46</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9,66; 12,92</t>
+          <t>23,63; 29,5</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,09; 17,66</t>
+          <t>18,29; 25,21</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>9,94; 13,7</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>9,9; 13,53</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>9,94; 13,43</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>14,06; 17,82</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>18,64; 22,72</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>13,81; 18,57</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>7,97%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>9,06%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>14,74%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>12,79%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>14,43%</t>
+          <t>15,48%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>23,47%</t>
+          <t>12,86%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>15,04%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>9,76%</t>
+          <t>23,46%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>11,19%</t>
+          <t>25,61%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
+          <t>25,0%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>11,25%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>9,81%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>11,51%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>15,91%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>19,93%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>17,3%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,45; 8,99</t>
+          <t>4,95; 9,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,79; 9,05</t>
+          <t>4,9; 9,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,15; 10,59</t>
+          <t>5,87; 10,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,01; 13,27</t>
+          <t>5,99; 13,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,33; 18,23</t>
+          <t>11,08; 19,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,5; 15,33</t>
+          <t>7,15; 12,53</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,66; 17,49</t>
+          <t>11,96; 19,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,33; 30,38</t>
+          <t>10,42; 16,19</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,49; 12,76</t>
+          <t>12,03; 19,48</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,31; 11,56</t>
+          <t>17,62; 29,68</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,38; 13,4</t>
+          <t>19,84; 32,65</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,56; 19,41</t>
+          <t>20,6; 30,19</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>9,18; 13,72</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>8,12; 11,59</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>9,71; 13,91</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>12,89; 19,7</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>16,61; 24,13</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>14,91; 21,0</t>
         </is>
       </c>
     </row>
@@ -936,17 +1105,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>11,13%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14,12%</t>
+          <t>14,41%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -956,42 +1125,72 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>24,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>16,01%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>20,35%</t>
+          <t>20,55%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>16,25%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>20,36%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>17,04%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>15,05%</t>
-        </is>
-      </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>14,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
+          <t>20,44%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>15,78%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>15,31%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>14,54%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>14,92%</t>
         </is>
       </c>
     </row>
@@ -1004,17 +1203,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,14; 16,3</t>
+          <t>5,89; 18,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,18; 20,76</t>
+          <t>9,62; 20,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,39; 13,07</t>
+          <t>4,97; 14,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,42 +1223,72 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,14; 35,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,32; 22,14</t>
+          <t>4,93; 16,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,46; 26,87</t>
+          <t>14,24; 27,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>11,08; 22,74</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>14,64; 26,84</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>12,52; 22,92</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>11,2; 19,12</t>
-        </is>
-      </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10,61; 18,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
+          <t>13,66; 28,53</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>11,53; 20,62</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>11,65; 19,79</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>10,8; 18,85</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>10,76; 20,18</t>
         </is>
       </c>
     </row>
@@ -1076,17 +1305,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>8,29%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>8,34%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,12%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -1096,42 +1325,72 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>15,52%</t>
+          <t>14,73%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,12%</t>
+          <t>9,69%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>14,82%</t>
+          <t>15,55%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>14,24%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>15,21%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
           <t>20,48%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>11,81%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>11,17%</t>
-        </is>
-      </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>26,16%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>22,79%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>12,0%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>11,36%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>11,88%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>15,83%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>20,46%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>16,39%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,49; 9,88</t>
+          <t>6,71; 10,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,56; 9,68</t>
+          <t>6,99; 10,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,79; 9,71</t>
+          <t>6,84; 10,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,24; 13,05</t>
+          <t>9,25; 13,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,43; 17,64</t>
+          <t>12,59; 17,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,64; 15,94</t>
+          <t>7,79; 11,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,08; 16,75</t>
+          <t>13,57; 17,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,74; 22,9</t>
+          <t>12,6; 16,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,45; 13,27</t>
+          <t>13,39; 17,15</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,04; 12,4</t>
+          <t>18,05; 23,29</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,51; 12,83</t>
+          <t>23,54; 28,89</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,25; 17,51</t>
+          <t>20,28; 25,77</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>10,69; 13,44</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>10,08; 12,61</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>10,74; 13,25</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>14,12; 17,39</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>18,51; 22,32</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>14,83; 18,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tiene más de dos enfermedades crónicas discapacitantes (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>228.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>266.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>332.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>143187</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>133480</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>141548</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>27097</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>33637</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>161646</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>261510</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>271306</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>257859</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>46752</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>62250</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>390559</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>404697</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>404786</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>399406</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>73849</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>95887</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>552205</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>108077; 193616</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>100165; 183732</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>107507; 182827</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>22240; 33105</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>27697; 40135</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>121377; 214382</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>218734; 310292</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>226299; 320947</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>215975; 303430</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>40109; 53424</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>55890; 69779</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>330432; 455352</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>344222; 474137</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>344104; 470327</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>344310; 465371</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>65720; 83277</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>86665; 105631</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>476065; 640297</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>95780</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>93311</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>110100</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>6550</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>10799</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>132264</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>215456</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>176690</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>207871</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>15380</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>17140</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>348679</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>311236</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>317972</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>21930</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>27939</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>480943</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>68078; 131891</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>67617; 125066</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>81095; 148657</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>4330; 9466</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>8119; 14470</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>99032; 173511</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>166471; 266172</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>143145; 222527</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>166262; 269244</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>11552; 19462</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>13280; 21851</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>287213; 421041</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>253778; 379535</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>223679; 319230</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>268267; 384485</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>17772; 27160</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>23279; 33828</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>414491; 583790</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>47065</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>60914</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>37513</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>40368</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>84644</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>66547</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>83877</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>84203</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>131708</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>127460</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>121390</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>124571</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>24894; 79855</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>40692; 88745</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>20994; 59454</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>20853; 70310</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>58653; 113284</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>45369; 93145</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>60306; 110546</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>56251; 117532</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>96251; 172094</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>96939; 164758</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>90145; 157346</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>89812; 168483</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>201.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>234.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>232.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>288.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>276.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>297.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>350.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>374.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>343.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>432.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>389.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>286032</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>287705</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>289161</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>33647</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>44436</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>334278</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>561609</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>514542</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>549607</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>62132</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>79390</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>823441</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>847641</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>802247</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>838769</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>95779</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>123826</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>1157719</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>231428; 349842</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>240984; 349686</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>235895; 346649</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>27925; 40294</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>37978; 52796</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>268815; 405919</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>490227; 645094</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>455267; 577961</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>483839; 619648</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>54764; 70686</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>71429; 87651</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>732586; 931156</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>754767; 949463</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>712105; 890476</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>758823; 935741</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>85441; 105268</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>112039; 135060</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>1047527; 1279804</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
